--- a/SIM Card Details/Idea/Vodafone Whitelisting  SIMS.xlsx
+++ b/SIM Card Details/Idea/Vodafone Whitelisting  SIMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\SIM Card Details\Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\CrazyCoder\SIM Card Details\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="whitelisting numbers" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'whitelisting numbers'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'whitelisting numbers'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
   <si>
     <t>8991130240317804422</t>
   </si>
@@ -218,12 +218,6 @@
   </si>
   <si>
     <t>NUMBER TO BE Added for SMS 2</t>
-  </si>
-  <si>
-    <t>NUMBER TO BE Removed 1</t>
-  </si>
-  <si>
-    <t>NUMBER TO BE Removed 2</t>
   </si>
   <si>
     <t>137.59.201.27</t>
@@ -242,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -254,13 +248,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +266,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,11 +283,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -340,11 +322,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,22 +343,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1578,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1592,10 +1571,9 @@
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
@@ -1615,19 +1593,13 @@
         <v>62</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1647,19 +1619,13 @@
         <v>9542198998</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1679,19 +1645,13 @@
         <v>9542198998</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1711,19 +1671,13 @@
         <v>9542198998</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1743,19 +1697,13 @@
         <v>9542198998</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1775,19 +1723,13 @@
         <v>9542198998</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1807,19 +1749,13 @@
         <v>9542198998</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1839,19 +1775,13 @@
         <v>9542198998</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1871,19 +1801,13 @@
         <v>9542198998</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1903,19 +1827,13 @@
         <v>9542198998</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1935,19 +1853,13 @@
         <v>9542198998</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1967,19 +1879,13 @@
         <v>9542198998</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1999,19 +1905,13 @@
         <v>9542198998</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2031,19 +1931,13 @@
         <v>9542198998</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2063,19 +1957,13 @@
         <v>9542198998</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2095,19 +1983,13 @@
         <v>9542198998</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2127,19 +2009,13 @@
         <v>9542198998</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2159,19 +2035,13 @@
         <v>9542198998</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2191,19 +2061,13 @@
         <v>9542198998</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2223,19 +2087,13 @@
         <v>9542198998</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2255,19 +2113,13 @@
         <v>9542198998</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2287,19 +2139,13 @@
         <v>9542198998</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2319,19 +2165,13 @@
         <v>9542198998</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2351,19 +2191,13 @@
         <v>9542198998</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2383,19 +2217,13 @@
         <v>9542198998</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2415,19 +2243,13 @@
         <v>9542198998</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2447,19 +2269,13 @@
         <v>9542198998</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2479,19 +2295,13 @@
         <v>9542198998</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2511,19 +2321,13 @@
         <v>9542198998</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2543,19 +2347,13 @@
         <v>9542198998</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2575,19 +2373,13 @@
         <v>9542198998</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2607,19 +2399,13 @@
         <v>9542198998</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2639,19 +2425,13 @@
         <v>9542198998</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2671,19 +2451,13 @@
         <v>9542198998</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2703,19 +2477,13 @@
         <v>9542198998</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2735,19 +2503,13 @@
         <v>9542198998</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -2767,19 +2529,13 @@
         <v>9542198998</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2799,19 +2555,13 @@
         <v>9542198998</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -2831,19 +2581,13 @@
         <v>9542198998</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -2863,19 +2607,13 @@
         <v>9542198998</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -2895,19 +2633,13 @@
         <v>9542198998</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -2927,19 +2659,13 @@
         <v>9542198998</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -2959,19 +2685,13 @@
         <v>9542198998</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -2991,19 +2711,13 @@
         <v>9542198998</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -3023,19 +2737,13 @@
         <v>9542198998</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -3055,19 +2763,13 @@
         <v>9542198998</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -3087,19 +2789,13 @@
         <v>9542198998</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -3119,19 +2815,13 @@
         <v>9542198998</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -3151,19 +2841,13 @@
         <v>9542198998</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -3183,19 +2867,13 @@
         <v>9542198998</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -3215,19 +2893,13 @@
         <v>9542198998</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -3247,19 +2919,13 @@
         <v>9542198998</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -3279,19 +2945,13 @@
         <v>9542198998</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -3311,19 +2971,13 @@
         <v>9542198998</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -3343,19 +2997,13 @@
         <v>9542198998</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -3375,19 +3023,13 @@
         <v>9542198998</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -3407,19 +3049,13 @@
         <v>9542198998</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3439,19 +3075,13 @@
         <v>9542198998</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -3471,19 +3101,13 @@
         <v>9542198998</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3503,19 +3127,13 @@
         <v>9542198998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -3535,19 +3153,13 @@
         <v>9542198998</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3567,19 +3179,13 @@
         <v>9542198998</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -3599,19 +3205,13 @@
         <v>9542198998</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3631,19 +3231,13 @@
         <v>9542198998</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" s="11">
-        <v>9652638047</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -3663,16 +3257,10 @@
         <v>9542198998</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" s="11">
-        <v>9652638047</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
